--- a/biology/Médecine/Canal_incisif/Canal_incisif.xlsx
+++ b/biology/Médecine/Canal_incisif/Canal_incisif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal incisif (ou canal incisif de Stensen ou canal palatin antérieur) est un canal osseux formé dans l'épaisseur de la suture intermaxillaire au niveau des processus palatins.
 Ils aboutissent au niveau du palais dans la fosse incisive situé au fond de la fosse incisive.
